--- a/TP 4/ejercicio5.xlsx
+++ b/TP 4/ejercicio5.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\Escuela\Facultad de Ingeniería\Tercer año (2025)\Primer cuatrimestre\Investigación Operativa\TP 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows11\Documents\Facultad\Investigación Operativa\TP 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80653F77-9C1A-426C-929E-19F066D2E478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Actividad</t>
   </si>
@@ -66,14 +65,41 @@
     <t>Desviación</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>Rutas</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>A, E, G, I y J</t>
+  </si>
+  <si>
+    <t>A, B, D, F, G y J</t>
+  </si>
+  <si>
+    <t>A, C, E, G, H y J</t>
+  </si>
+  <si>
+    <t>A, C, D, E, F, H y J</t>
+  </si>
+  <si>
+    <t>TE =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P = </t>
+  </si>
+  <si>
+    <t>Varianza</t>
+  </si>
+  <si>
+    <t>Desviacion estandar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,24 +107,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -106,11 +130,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -118,8 +179,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,20 +470,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="2"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,11 +517,8 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -485,12 +552,8 @@
       <c r="K2" s="1">
         <v>3</v>
       </c>
-      <c r="L2" s="2">
-        <f>SUM(B2:K2)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -523,6 +586,124 @@
       </c>
       <c r="K3" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B3^2</f>
+        <v>0.10890000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:K4" si="0">C3^2</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30250000000000005</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <f>B2 + F2 + H2 + J2 + K2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <f xml:space="preserve"> B2 + C2 + E2 + G2 + H2 + K2</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <f xml:space="preserve"> B2 + D2 + F2 + H2 + I2 + K2</f>
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <f>B4+D4+F4+H4+I4+K4</f>
+        <v>6.4370000000000003</v>
+      </c>
+      <c r="D9">
+        <f>SQRT(C9)</f>
+        <v>2.5371243564319035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <f xml:space="preserve"> B2 + D2 + E2 + F2 + G2 + I2 + K2</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <f>MAX(B7:B10)</f>
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
